--- a/libreria.xlsx
+++ b/libreria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrian\Desktop\apuntesPython\apuntesClase\SQL\06_erd-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F995DBA-D6D0-4661-B946-7B3E28A7AC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB0DE74-029C-4276-B810-52FC917C4EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{826839E5-B844-4FF3-9E53-B18D5D2CFF79}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>usuarios</t>
   </si>
@@ -42,9 +42,6 @@
     <t>titulo</t>
   </si>
   <si>
-    <t>autor</t>
-  </si>
-  <si>
     <t>libro_favorito</t>
   </si>
   <si>
@@ -76,6 +73,15 @@
   </si>
   <si>
     <t>excequiel perez</t>
+  </si>
+  <si>
+    <t>id_autor</t>
+  </si>
+  <si>
+    <t>game of thrones</t>
+  </si>
+  <si>
+    <t>autores_libros</t>
   </si>
 </sst>
 </file>
@@ -100,13 +106,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,148 +447,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53EC8ED-145E-4C08-9F07-84387699C128}">
-  <dimension ref="B2:J13"/>
+  <dimension ref="A2:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="K3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="F10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
       <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13">
         <v>2</v>
       </c>
     </row>
